--- a/excel/template.xlsx
+++ b/excel/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12975"/>
+    <workbookView windowWidth="21540" windowHeight="8865"/>
   </bookViews>
   <sheets>
     <sheet name="关联摄像机" sheetId="1" r:id="rId1"/>
@@ -1280,7 +1280,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1329,7 +1329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="44" customHeight="1" spans="1:7">
+    <row r="3" ht="25" customHeight="1" spans="1:7">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
